--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed5/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.87869999999999</v>
+        <v>-10.85509999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.177599999999989</v>
+        <v>-7.206699999999993</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.117299999999999</v>
+        <v>4.929499999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.8853</v>
+        <v>-13.3753</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.0208</v>
+        <v>-11.9852</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.436300000000005</v>
+        <v>-7.489999999999998</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.4778</v>
+        <v>-13.6568</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.262199999999999</v>
+        <v>6.418599999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.53870000000001</v>
+        <v>-12.66540000000002</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.219700000000001</v>
+        <v>8.983900000000004</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.15059999999999</v>
+        <v>-12.9902</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.267200000000002</v>
+        <v>5.815</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.111100000000001</v>
+        <v>-7.315400000000003</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.6091</v>
+        <v>-13.4973</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.197200000000004</v>
+        <v>6.515300000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.833500000000002</v>
+        <v>4.702300000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.664999999999996</v>
+        <v>5.355899999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.37819999999999</v>
+        <v>-14.23859999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.111999999999998</v>
+        <v>-7.944899999999993</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.527399999999997</v>
+        <v>5.116399999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.543899999999994</v>
+        <v>4.948699999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.1951</v>
+        <v>5.3531</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.593100000000007</v>
+        <v>-8.752600000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.231499999999998</v>
+        <v>-6.096099999999998</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.078800000000002</v>
+        <v>5.0285</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.269799999999998</v>
+        <v>-6.134099999999997</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.1788</v>
+        <v>-6.004400000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.307399999999999</v>
+        <v>4.313299999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.59829999999999</v>
+        <v>-12.99019999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.4365</v>
+        <v>-13.12040000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.793299999999999</v>
+        <v>-7.715499999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
